--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H2">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>23964.60795515506</v>
+        <v>887.6461796322825</v>
       </c>
       <c r="R2">
-        <v>23964.60795515506</v>
+        <v>7988.815616690543</v>
       </c>
       <c r="S2">
-        <v>0.1735211410044358</v>
+        <v>0.005955826828620886</v>
       </c>
       <c r="T2">
-        <v>0.1735211410044358</v>
+        <v>0.005955826828620887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H3">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>44121.83602688256</v>
+        <v>1462.320898524707</v>
       </c>
       <c r="R3">
-        <v>44121.83602688256</v>
+        <v>13160.88808672236</v>
       </c>
       <c r="S3">
-        <v>0.3194740904972066</v>
+        <v>0.009811713540066594</v>
       </c>
       <c r="T3">
-        <v>0.3194740904972066</v>
+        <v>0.009811713540066595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H4">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>16750.66359123696</v>
+        <v>586.6652466987379</v>
       </c>
       <c r="R4">
-        <v>16750.66359123696</v>
+        <v>5279.98722028864</v>
       </c>
       <c r="S4">
-        <v>0.1212869521743065</v>
+        <v>0.003936339383734287</v>
       </c>
       <c r="T4">
-        <v>0.1212869521743065</v>
+        <v>0.003936339383734288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H5">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I5">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J5">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>38017.74540392922</v>
+        <v>1294.264141438698</v>
       </c>
       <c r="R5">
-        <v>38017.74540392922</v>
+        <v>11648.37727294828</v>
       </c>
       <c r="S5">
-        <v>0.2752760476303506</v>
+        <v>0.008684105529633293</v>
       </c>
       <c r="T5">
-        <v>0.2752760476303506</v>
+        <v>0.008684105529633295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H6">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>31.13204585916706</v>
+        <v>26934.69655492133</v>
       </c>
       <c r="R6">
-        <v>31.13204585916706</v>
+        <v>242412.268994292</v>
       </c>
       <c r="S6">
-        <v>0.0002254185893378257</v>
+        <v>0.1807233468058389</v>
       </c>
       <c r="T6">
-        <v>0.0002254185893378257</v>
+        <v>0.180723346805839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H7">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>57.31798430209994</v>
+        <v>44372.6008982537</v>
       </c>
       <c r="R7">
-        <v>57.31798430209994</v>
+        <v>399353.4080842833</v>
       </c>
       <c r="S7">
-        <v>0.0004150237740081723</v>
+        <v>0.297726203243488</v>
       </c>
       <c r="T7">
-        <v>0.0004150237740081723</v>
+        <v>0.2977262032434881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H8">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J8">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>21.76052402232986</v>
+        <v>17801.74439064738</v>
       </c>
       <c r="R8">
-        <v>21.76052402232986</v>
+        <v>160215.6995158264</v>
       </c>
       <c r="S8">
-        <v>0.0001575619749037818</v>
+        <v>0.119444108779909</v>
       </c>
       <c r="T8">
-        <v>0.0001575619749037818</v>
+        <v>0.1194441087799091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H9">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J9">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>49.38825603123053</v>
+        <v>39273.09406773823</v>
       </c>
       <c r="R9">
-        <v>49.38825603123053</v>
+        <v>353457.8466096441</v>
       </c>
       <c r="S9">
-        <v>0.0003576067905969997</v>
+        <v>0.2635101154702028</v>
       </c>
       <c r="T9">
-        <v>0.0003576067905969997</v>
+        <v>0.2635101154702028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H10">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I10">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J10">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>2944.157930078481</v>
+        <v>40.155153214024</v>
       </c>
       <c r="R10">
-        <v>2944.157930078481</v>
+        <v>361.396378926216</v>
       </c>
       <c r="S10">
-        <v>0.02131783855093616</v>
+        <v>0.0002694284550613848</v>
       </c>
       <c r="T10">
-        <v>0.02131783855093616</v>
+        <v>0.0002694284550613849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H11">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I11">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J11">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>5420.56242569265</v>
+        <v>66.15216859566067</v>
       </c>
       <c r="R11">
-        <v>5420.56242569265</v>
+        <v>595.369517360946</v>
       </c>
       <c r="S11">
-        <v>0.03924880301618416</v>
+        <v>0.0004438602559599852</v>
       </c>
       <c r="T11">
-        <v>0.03924880301618416</v>
+        <v>0.0004438602559599853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H12">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I12">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J12">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>2057.89300365369</v>
+        <v>26.53944038410667</v>
       </c>
       <c r="R12">
-        <v>2057.89300365369</v>
+        <v>238.8549634569601</v>
       </c>
       <c r="S12">
-        <v>0.01490063775411023</v>
+        <v>0.0001780713021507365</v>
       </c>
       <c r="T12">
-        <v>0.01490063775411023</v>
+        <v>0.0001780713021507366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.405826</v>
+      </c>
+      <c r="H13">
+        <v>1.217478</v>
+      </c>
+      <c r="I13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>58.54965198004667</v>
+      </c>
+      <c r="R13">
+        <v>526.94686782042</v>
+      </c>
+      <c r="S13">
+        <v>0.000392849759364295</v>
+      </c>
+      <c r="T13">
+        <v>0.0003928497593642951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H14">
+        <v>103.263979</v>
+      </c>
+      <c r="I14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>98.946724</v>
+      </c>
+      <c r="N14">
+        <v>296.840172</v>
+      </c>
+      <c r="O14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q14">
+        <v>3405.877476418265</v>
+      </c>
+      <c r="R14">
+        <v>30652.89728776439</v>
+      </c>
+      <c r="S14">
+        <v>0.02285236720947835</v>
+      </c>
+      <c r="T14">
+        <v>0.02285236720947836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H15">
+        <v>103.263979</v>
+      </c>
+      <c r="I15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P15">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q15">
+        <v>5610.890832250572</v>
+      </c>
+      <c r="R15">
+        <v>50498.01749025515</v>
+      </c>
+      <c r="S15">
+        <v>0.03764731366840841</v>
+      </c>
+      <c r="T15">
+        <v>0.03764731366840841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>33.288177672303</v>
-      </c>
-      <c r="H13">
-        <v>33.288177672303</v>
-      </c>
-      <c r="I13">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="J13">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N13">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O13">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P13">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q13">
-        <v>4670.64793315784</v>
-      </c>
-      <c r="R13">
-        <v>4670.64793315784</v>
-      </c>
-      <c r="S13">
-        <v>0.03381887824362342</v>
-      </c>
-      <c r="T13">
-        <v>0.03381887824362342</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H16">
+        <v>103.263979</v>
+      </c>
+      <c r="I16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N16">
+        <v>196.18832</v>
+      </c>
+      <c r="O16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q16">
+        <v>2251.02072850281</v>
+      </c>
+      <c r="R16">
+        <v>20259.18655652528</v>
+      </c>
+      <c r="S16">
+        <v>0.01510364146686536</v>
+      </c>
+      <c r="T16">
+        <v>0.01510364146686537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H17">
+        <v>103.263979</v>
+      </c>
+      <c r="I17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N17">
+        <v>432.81839</v>
+      </c>
+      <c r="O17">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P17">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q17">
+        <v>4966.061015085978</v>
+      </c>
+      <c r="R17">
+        <v>44694.54913577381</v>
+      </c>
+      <c r="S17">
+        <v>0.03332070830121744</v>
+      </c>
+      <c r="T17">
+        <v>0.03332070830121744</v>
       </c>
     </row>
   </sheetData>
